--- a/krilov/files/18/18var11.xlsx
+++ b/krilov/files/18/18var11.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sr/Yandex.Disk.localized/Компьютер/Различные работы/Сборник/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CAAA83-1E0D-1D4F-80AF-8856106E5CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{86B6F546-B461-3743-9AEA-019860B20F26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +18,12 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -36,12 +34,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -136,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -146,6 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -206,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -452,23 +467,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6C034E-CBB0-4F4D-8FDB-6BF9B75F6319}">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>27</v>
       </c>
@@ -518,7 +533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>23</v>
       </c>
@@ -568,7 +583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>12</v>
       </c>
@@ -618,7 +633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>13</v>
       </c>
@@ -668,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -718,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -768,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>14</v>
       </c>
@@ -818,7 +833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>22</v>
       </c>
@@ -868,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>21</v>
       </c>
@@ -918,7 +933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>12</v>
       </c>
@@ -968,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1018,7 +1033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>20</v>
       </c>
@@ -1118,7 +1133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>29</v>
       </c>
@@ -1168,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>19</v>
       </c>
@@ -1218,7 +1233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -1268,7 +1283,2124 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f>A1</f>
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
+        <f>A24+B1</f>
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:P24" si="0">B24+C1</f>
+        <v>67</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <f>A2+A24</f>
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <f>MIN(A25,B24) + B2</f>
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:D39" si="1">MIN(B25,C24) + C2</f>
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E28" si="2">MIN(D25,E24) + E2</f>
+        <v>106</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F26" si="3">MIN(E25,F24) + F2</f>
+        <v>133</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G26" si="4">MIN(F25,G24) + G2</f>
+        <v>158</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H26" si="5">MIN(G25,H24) + H2</f>
+        <v>185</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I26" si="6">MIN(H25,I24) + I2</f>
+        <v>191</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J26" si="7">MIN(I25,J24) + J2</f>
+        <v>206</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K26" si="8">MIN(J25,K24) + K2</f>
+        <v>216</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L26" si="9">MIN(K25,L24) + L2</f>
+        <v>228</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M26" si="10">MIN(L25,M24) + M2</f>
+        <v>250</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N26" si="11">MIN(M25,N24) + N2</f>
+        <v>275</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O26" si="12">MIN(N25,O24) + O2</f>
+        <v>293</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P26" si="13">MIN(O25,P24) + P2</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <f t="shared" ref="A26:A39" si="14">A3+A25</f>
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B39" si="15">MIN(A26,B25) + B3</f>
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>245</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>294</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="12"/>
+        <v>303</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F29" si="16">MIN(E27,F26) + F4</f>
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G29" si="17">MIN(F27,G26) + G4</f>
+        <v>165</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="18">MIN(G27,H26) + H4</f>
+        <v>188</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I29" si="19">MIN(H27,I26) + I4</f>
+        <v>213</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J29" si="20">MIN(I27,J26) + J4</f>
+        <v>227</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K39" si="21">MIN(J27,K26) + K4</f>
+        <v>253</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L38" si="22">MIN(K27,L26) + L4</f>
+        <v>256</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M38" si="23">MIN(L27,M26) + M4</f>
+        <v>276</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N38" si="24">MIN(M27,N26) + N4</f>
+        <v>287</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O38" si="25">MIN(N27,O26) + O4</f>
+        <v>305</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P38" si="26">MIN(O27,P26) + P4</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="15"/>
+        <v>106</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="16"/>
+        <v>168</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="17"/>
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="18"/>
+        <v>208</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="19"/>
+        <v>224</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="20"/>
+        <v>248</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="21"/>
+        <v>268</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="22"/>
+        <v>274</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="23"/>
+        <v>290</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="24"/>
+        <v>303</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="25"/>
+        <v>321</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="26"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="D29">
+        <f>MIN(C29,D28) + D6</f>
+        <v>147</v>
+      </c>
+      <c r="E29">
+        <f>MIN(D29,E28) + E6</f>
+        <v>173</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="16"/>
+        <v>198</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="17"/>
+        <v>199</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="18"/>
+        <v>224</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="19"/>
+        <v>246</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="20"/>
+        <v>273</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="21"/>
+        <v>290</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="22"/>
+        <v>287</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="23"/>
+        <v>316</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="24"/>
+        <v>320</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="25"/>
+        <v>343</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="26"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <f t="shared" si="14"/>
+        <v>122</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="15"/>
+        <v>126</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="D30">
+        <f>MIN(C30,D29) + D7</f>
+        <v>175</v>
+      </c>
+      <c r="E30" s="9">
+        <f>D30+E7</f>
+        <v>204</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ref="F30:J30" si="27">E30+F7</f>
+        <v>219</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="27"/>
+        <v>246</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="27"/>
+        <v>272</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="27"/>
+        <v>291</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="27"/>
+        <v>321</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="21"/>
+        <v>304</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="22"/>
+        <v>311</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="23"/>
+        <v>322</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="24"/>
+        <v>340</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="25"/>
+        <v>357</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="26"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="15"/>
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="28">MIN(D31,E30) + E8</f>
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="29">MIN(E31,F30) + F8</f>
+        <v>225</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="30">MIN(F31,G30) + G8</f>
+        <v>247</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="31">MIN(G31,H30) + H8</f>
+        <v>270</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="32">MIN(H31,I30) + I8</f>
+        <v>299</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="33">MIN(I31,J30) + J8</f>
+        <v>326</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="21"/>
+        <v>322</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="22"/>
+        <v>338</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="23"/>
+        <v>342</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="24"/>
+        <v>355</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="25"/>
+        <v>367</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="26"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E39" si="34">MIN(D32,E31) + E9</f>
+        <v>225</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F39" si="35">MIN(E32,F31) + F9</f>
+        <v>237</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G39" si="36">MIN(F32,G31) + G9</f>
+        <v>254</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H39" si="37">MIN(G32,H31) + H9</f>
+        <v>279</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I39" si="38">MIN(H32,I31) + I9</f>
+        <v>294</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J39" si="39">MIN(I32,J31) + J9</f>
+        <v>311</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="21"/>
+        <v>324</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="22"/>
+        <v>342</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="23"/>
+        <v>371</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="24"/>
+        <v>368</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="25"/>
+        <v>378</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="26"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="15"/>
+        <v>182</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="34"/>
+        <v>233</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="35"/>
+        <v>255</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="36"/>
+        <v>273</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="37"/>
+        <v>291</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="38"/>
+        <v>305</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="39"/>
+        <v>335</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="21"/>
+        <v>347</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="22"/>
+        <v>367</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="23"/>
+        <v>379</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="24"/>
+        <v>393</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="25"/>
+        <v>402</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="26"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="15"/>
+        <v>207</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="34"/>
+        <v>249</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="35"/>
+        <v>259</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="36"/>
+        <v>284</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="37"/>
+        <v>304</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="38"/>
+        <v>327</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="39"/>
+        <v>355</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="21"/>
+        <v>372</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="22"/>
+        <v>391</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="23"/>
+        <v>408</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="24"/>
+        <v>403</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="25"/>
+        <v>425</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="26"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="34"/>
+        <v>262</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="35"/>
+        <v>286</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="36"/>
+        <v>304</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="37"/>
+        <v>326</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="38"/>
+        <v>343</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="39"/>
+        <v>372</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="21"/>
+        <v>399</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="22"/>
+        <v>402</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="23"/>
+        <v>432</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="24"/>
+        <v>429</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="25"/>
+        <v>448</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="26"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="15"/>
+        <v>229</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="34"/>
+        <v>278</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="36"/>
+        <v>320</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="37"/>
+        <v>348</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="38"/>
+        <v>367</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="39"/>
+        <v>394</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="21"/>
+        <v>423</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="22"/>
+        <v>417</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="23"/>
+        <v>431</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="24"/>
+        <v>442</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="25"/>
+        <v>452</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="26"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <f t="shared" si="14"/>
+        <v>249</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="15"/>
+        <v>243</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="34"/>
+        <v>292</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="35"/>
+        <v>311</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="36"/>
+        <v>321</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="37"/>
+        <v>351</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="38"/>
+        <v>362</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="39"/>
+        <v>390</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="21"/>
+        <v>416</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="22"/>
+        <v>445</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="23"/>
+        <v>452</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="24"/>
+        <v>454</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="25"/>
+        <v>473</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="26"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <f t="shared" si="14"/>
+        <v>268</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="15"/>
+        <v>260</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="34"/>
+        <v>304</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="35"/>
+        <v>324</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="36"/>
+        <v>344</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="37"/>
+        <v>358</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="38"/>
+        <v>385</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="39"/>
+        <v>399</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="21"/>
+        <v>412</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="22"/>
+        <v>440</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="23"/>
+        <v>454</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="24"/>
+        <v>472</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="25"/>
+        <v>500</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="26"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <f t="shared" si="14"/>
+        <v>278</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="15"/>
+        <v>281</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="34"/>
+        <v>326</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="35"/>
+        <v>336</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="36"/>
+        <v>347</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="37"/>
+        <v>370</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="38"/>
+        <v>386</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="39"/>
+        <v>404</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="21"/>
+        <v>432</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39" si="40">MIN(K39,L38) + L16</f>
+        <v>460</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39" si="41">MIN(L39,M38) + M16</f>
+        <v>473</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39" si="42">MIN(M39,N38) + N16</f>
+        <v>482</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39" si="43">MIN(N39,O38) + O16</f>
+        <v>496</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39" si="44">MIN(O39,P38) + P16</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <f>A1</f>
+        <v>27</v>
+      </c>
+      <c r="B46" s="11">
+        <f xml:space="preserve"> B1+A46</f>
+        <v>37</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" ref="C46:P46" si="45" xml:space="preserve"> C1+B46</f>
+        <v>67</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="45"/>
+        <v>89</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="45"/>
+        <v>112</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="45"/>
+        <v>126</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="45"/>
+        <v>137</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="45"/>
+        <v>156</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="45"/>
+        <v>171</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="45"/>
+        <v>196</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="45"/>
+        <v>218</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="45"/>
+        <v>244</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="45"/>
+        <v>259</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="45"/>
+        <v>286</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="45"/>
+        <v>313</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="45"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <f>A2 +A46</f>
+        <v>50</v>
+      </c>
+      <c r="B47" s="9">
+        <f>MAX(A47,B46) + B2</f>
+        <v>63</v>
+      </c>
+      <c r="C47" s="9">
+        <f t="shared" ref="C47:P47" si="46">MAX(B47,C46) + C2</f>
+        <v>83</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="46"/>
+        <v>101</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="46"/>
+        <v>140</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="46"/>
+        <v>167</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="46"/>
+        <v>192</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="46"/>
+        <v>221</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="46"/>
+        <v>241</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="46"/>
+        <v>256</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="46"/>
+        <v>266</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="46"/>
+        <v>278</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="46"/>
+        <v>300</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="46"/>
+        <v>325</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="46"/>
+        <v>343</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="46"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <f t="shared" ref="A48:A61" si="47">A3 +A47</f>
+        <v>62</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" ref="B48:B61" si="48">MAX(A48,B47) + B3</f>
+        <v>78</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" ref="C48:C61" si="49">MAX(B48,C47) + C3</f>
+        <v>107</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" ref="D48:D61" si="50">MAX(C48,D47) + D3</f>
+        <v>122</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" ref="E48:E51" si="51">MAX(D48,E47) + E3</f>
+        <v>155</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" ref="F48:F51" si="52">MAX(E48,F47) + F3</f>
+        <v>194</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" ref="G48:G51" si="53">MAX(F48,G47) + G3</f>
+        <v>214</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" ref="H48:H51" si="54">MAX(G48,H47) + H3</f>
+        <v>241</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" ref="I48:I51" si="55">MAX(H48,I47) + I3</f>
+        <v>268</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" ref="J48:J51" si="56">MAX(I48,J47) + J3</f>
+        <v>296</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" ref="K48:K52" si="57">MAX(J48,K47) + K3</f>
+        <v>321</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" ref="L48:L52" si="58">MAX(K48,L47) + L3</f>
+        <v>338</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" ref="M48:M52" si="59">MAX(L48,M47) + M3</f>
+        <v>363</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" ref="N48:N52" si="60">MAX(M48,N47) + N3</f>
+        <v>387</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" ref="O48:O52" si="61">MAX(N48,O47) + O3</f>
+        <v>397</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" ref="P48:P52" si="62">MAX(O48,P47) + P3</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <f t="shared" si="47"/>
+        <v>75</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="48"/>
+        <v>98</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" si="49"/>
+        <v>131</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" si="50"/>
+        <v>151</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="51"/>
+        <v>174</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="52"/>
+        <v>217</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="53"/>
+        <v>232</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="54"/>
+        <v>264</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="55"/>
+        <v>293</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="56"/>
+        <v>310</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="57"/>
+        <v>347</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="58"/>
+        <v>358</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="59"/>
+        <v>383</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="60"/>
+        <v>398</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="61"/>
+        <v>416</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="62"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <f t="shared" si="47"/>
+        <v>85</v>
+      </c>
+      <c r="B50" s="9">
+        <f t="shared" si="48"/>
+        <v>119</v>
+      </c>
+      <c r="C50" s="9">
+        <f t="shared" si="49"/>
+        <v>158</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" si="50"/>
+        <v>176</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="51"/>
+        <v>197</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="52"/>
+        <v>237</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="53"/>
+        <v>252</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="54"/>
+        <v>292</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="55"/>
+        <v>309</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="56"/>
+        <v>334</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="57"/>
+        <v>367</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="58"/>
+        <v>385</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="59"/>
+        <v>401</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="60"/>
+        <v>417</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="61"/>
+        <v>435</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="62"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <f t="shared" si="47"/>
+        <v>108</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" si="48"/>
+        <v>129</v>
+      </c>
+      <c r="C51" s="9">
+        <f t="shared" si="49"/>
+        <v>174</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="50"/>
+        <v>192</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="51"/>
+        <v>223</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="52"/>
+        <v>267</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="53"/>
+        <v>286</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="54"/>
+        <v>317</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="55"/>
+        <v>339</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="56"/>
+        <v>366</v>
+      </c>
+      <c r="K51" s="9">
+        <f t="shared" si="57"/>
+        <v>389</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="58"/>
+        <v>402</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="59"/>
+        <v>431</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="60"/>
+        <v>448</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="61"/>
+        <v>471</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" si="62"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <f t="shared" si="47"/>
+        <v>122</v>
+      </c>
+      <c r="B52" s="9">
+        <f t="shared" si="48"/>
+        <v>139</v>
+      </c>
+      <c r="C52" s="9">
+        <f t="shared" si="49"/>
+        <v>201</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="50"/>
+        <v>229</v>
+      </c>
+      <c r="E52" s="13">
+        <f>D52+E7</f>
+        <v>258</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" ref="F52:J52" si="63">E52+F7</f>
+        <v>273</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="63"/>
+        <v>300</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" si="63"/>
+        <v>326</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="63"/>
+        <v>345</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" si="63"/>
+        <v>375</v>
+      </c>
+      <c r="K52" s="9">
+        <f t="shared" si="57"/>
+        <v>403</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="58"/>
+        <v>427</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="59"/>
+        <v>442</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="60"/>
+        <v>468</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="61"/>
+        <v>488</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="62"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <f t="shared" si="47"/>
+        <v>144</v>
+      </c>
+      <c r="B53" s="9">
+        <f t="shared" si="48"/>
+        <v>158</v>
+      </c>
+      <c r="C53" s="9">
+        <f t="shared" si="49"/>
+        <v>215</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" si="50"/>
+        <v>249</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" ref="E53" si="64">MAX(D53,E52) + E8</f>
+        <v>284</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" ref="F53" si="65">MAX(E53,F52) + F8</f>
+        <v>309</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" ref="G53" si="66">MAX(F53,G52) + G8</f>
+        <v>331</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" ref="H53" si="67">MAX(G53,H52) + H8</f>
+        <v>354</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" ref="I53" si="68">MAX(H53,I52) + I8</f>
+        <v>383</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" ref="J53" si="69">MAX(I53,J52) + J8</f>
+        <v>410</v>
+      </c>
+      <c r="K53" s="9">
+        <f t="shared" ref="K53" si="70">MAX(J53,K52) + K8</f>
+        <v>428</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" ref="L53" si="71">MAX(K53,L52) + L8</f>
+        <v>455</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" ref="M53" si="72">MAX(L53,M52) + M8</f>
+        <v>475</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" ref="N53" si="73">MAX(M53,N52) + N8</f>
+        <v>490</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" ref="O53" si="74">MAX(N53,O52) + O8</f>
+        <v>502</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" ref="P53" si="75">MAX(O53,P52) + P8</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <f t="shared" si="47"/>
+        <v>165</v>
+      </c>
+      <c r="B54" s="9">
+        <f t="shared" si="48"/>
+        <v>180</v>
+      </c>
+      <c r="C54" s="9">
+        <f t="shared" si="49"/>
+        <v>239</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" ref="D54:D61" si="76">MAX(C54,D53) + D9</f>
+        <v>270</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" ref="E54:E61" si="77">MAX(D54,E53) + E9</f>
+        <v>314</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" ref="F54:F61" si="78">MAX(E54,F53) + F9</f>
+        <v>326</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" ref="G54:G61" si="79">MAX(F54,G53) + G9</f>
+        <v>348</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" ref="H54:H61" si="80">MAX(G54,H53) + H9</f>
+        <v>379</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" ref="I54:I61" si="81">MAX(H54,I53) + I9</f>
+        <v>398</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" ref="J54:J61" si="82">MAX(I54,J53) + J9</f>
+        <v>427</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" ref="K54:K61" si="83">MAX(J54,K53) + K9</f>
+        <v>441</v>
+      </c>
+      <c r="L54" s="9">
+        <f t="shared" ref="L54:L61" si="84">MAX(K54,L53) + L9</f>
+        <v>473</v>
+      </c>
+      <c r="M54" s="9">
+        <f t="shared" ref="M54:M61" si="85">MAX(L54,M53) + M9</f>
+        <v>504</v>
+      </c>
+      <c r="N54" s="9">
+        <f t="shared" ref="N54:N61" si="86">MAX(M54,N53) + N9</f>
+        <v>517</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" ref="O54:O61" si="87">MAX(N54,O53) + O9</f>
+        <v>528</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" ref="P54:P61" si="88">MAX(O54,P53) + P9</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <f t="shared" si="47"/>
+        <v>177</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" si="48"/>
+        <v>207</v>
+      </c>
+      <c r="C55" s="9">
+        <f t="shared" si="49"/>
+        <v>260</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" si="76"/>
+        <v>286</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="77"/>
+        <v>336</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="78"/>
+        <v>358</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="79"/>
+        <v>377</v>
+      </c>
+      <c r="H55" s="9">
+        <f t="shared" si="80"/>
+        <v>397</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" si="81"/>
+        <v>412</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="82"/>
+        <v>457</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" si="83"/>
+        <v>480</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="84"/>
+        <v>505</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="85"/>
+        <v>517</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" si="86"/>
+        <v>542</v>
+      </c>
+      <c r="O55" s="9">
+        <f t="shared" si="87"/>
+        <v>566</v>
+      </c>
+      <c r="P55" s="9">
+        <f t="shared" si="88"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <f t="shared" si="47"/>
+        <v>187</v>
+      </c>
+      <c r="B56" s="9">
+        <f t="shared" si="48"/>
+        <v>232</v>
+      </c>
+      <c r="C56" s="9">
+        <f t="shared" si="49"/>
+        <v>281</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="76"/>
+        <v>299</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="77"/>
+        <v>361</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="78"/>
+        <v>371</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="79"/>
+        <v>402</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" si="80"/>
+        <v>422</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="81"/>
+        <v>445</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="82"/>
+        <v>485</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" si="83"/>
+        <v>510</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" si="84"/>
+        <v>534</v>
+      </c>
+      <c r="M56" s="9">
+        <f t="shared" si="85"/>
+        <v>563</v>
+      </c>
+      <c r="N56" s="9">
+        <f t="shared" si="86"/>
+        <v>573</v>
+      </c>
+      <c r="O56" s="9">
+        <f t="shared" si="87"/>
+        <v>596</v>
+      </c>
+      <c r="P56" s="9">
+        <f t="shared" si="88"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <f t="shared" si="47"/>
+        <v>200</v>
+      </c>
+      <c r="B57" s="9">
+        <f t="shared" si="48"/>
+        <v>248</v>
+      </c>
+      <c r="C57" s="9">
+        <f t="shared" si="49"/>
+        <v>299</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="76"/>
+        <v>318</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="77"/>
+        <v>380</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="78"/>
+        <v>407</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="79"/>
+        <v>427</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" si="80"/>
+        <v>449</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="81"/>
+        <v>466</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="82"/>
+        <v>514</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="83"/>
+        <v>541</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" si="84"/>
+        <v>552</v>
+      </c>
+      <c r="M57" s="9">
+        <f t="shared" si="85"/>
+        <v>593</v>
+      </c>
+      <c r="N57" s="9">
+        <f t="shared" si="86"/>
+        <v>619</v>
+      </c>
+      <c r="O57" s="9">
+        <f t="shared" si="87"/>
+        <v>642</v>
+      </c>
+      <c r="P57" s="9">
+        <f t="shared" si="88"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <f t="shared" si="47"/>
+        <v>220</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="48"/>
+        <v>261</v>
+      </c>
+      <c r="C58" s="9">
+        <f t="shared" si="49"/>
+        <v>322</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="76"/>
+        <v>339</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="77"/>
+        <v>398</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" si="78"/>
+        <v>429</v>
+      </c>
+      <c r="G58" s="9">
+        <f t="shared" si="79"/>
+        <v>449</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" si="80"/>
+        <v>477</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="81"/>
+        <v>501</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" si="82"/>
+        <v>541</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="83"/>
+        <v>570</v>
+      </c>
+      <c r="L58" s="9">
+        <f t="shared" si="84"/>
+        <v>585</v>
+      </c>
+      <c r="M58" s="9">
+        <f t="shared" si="85"/>
+        <v>607</v>
+      </c>
+      <c r="N58" s="9">
+        <f t="shared" si="86"/>
+        <v>632</v>
+      </c>
+      <c r="O58" s="9">
+        <f t="shared" si="87"/>
+        <v>652</v>
+      </c>
+      <c r="P58" s="9">
+        <f t="shared" si="88"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <f t="shared" si="47"/>
+        <v>249</v>
+      </c>
+      <c r="B59" s="9">
+        <f t="shared" si="48"/>
+        <v>275</v>
+      </c>
+      <c r="C59" s="9">
+        <f t="shared" si="49"/>
+        <v>352</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="76"/>
+        <v>377</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="77"/>
+        <v>412</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" si="78"/>
+        <v>448</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="79"/>
+        <v>459</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="80"/>
+        <v>507</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="81"/>
+        <v>518</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="82"/>
+        <v>569</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="83"/>
+        <v>596</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="84"/>
+        <v>625</v>
+      </c>
+      <c r="M59" s="9">
+        <f t="shared" si="85"/>
+        <v>646</v>
+      </c>
+      <c r="N59" s="9">
+        <f t="shared" si="86"/>
+        <v>658</v>
+      </c>
+      <c r="O59" s="9">
+        <f t="shared" si="87"/>
+        <v>679</v>
+      </c>
+      <c r="P59" s="9">
+        <f t="shared" si="88"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <f t="shared" si="47"/>
+        <v>268</v>
+      </c>
+      <c r="B60" s="9">
+        <f t="shared" si="48"/>
+        <v>292</v>
+      </c>
+      <c r="C60" s="9">
+        <f t="shared" si="49"/>
+        <v>367</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="76"/>
+        <v>392</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="77"/>
+        <v>426</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="78"/>
+        <v>468</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" si="79"/>
+        <v>491</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" si="80"/>
+        <v>521</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="81"/>
+        <v>548</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="82"/>
+        <v>583</v>
+      </c>
+      <c r="K60" s="9">
+        <f t="shared" si="83"/>
+        <v>609</v>
+      </c>
+      <c r="L60" s="9">
+        <f t="shared" si="84"/>
+        <v>653</v>
+      </c>
+      <c r="M60" s="9">
+        <f t="shared" si="85"/>
+        <v>667</v>
+      </c>
+      <c r="N60" s="9">
+        <f t="shared" si="86"/>
+        <v>685</v>
+      </c>
+      <c r="O60" s="9">
+        <f t="shared" si="87"/>
+        <v>713</v>
+      </c>
+      <c r="P60" s="9">
+        <f t="shared" si="88"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <f t="shared" si="47"/>
+        <v>278</v>
+      </c>
+      <c r="B61" s="9">
+        <f t="shared" si="48"/>
+        <v>313</v>
+      </c>
+      <c r="C61" s="9">
+        <f t="shared" si="49"/>
+        <v>396</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="76"/>
+        <v>424</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="77"/>
+        <v>448</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="78"/>
+        <v>480</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" si="79"/>
+        <v>502</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="80"/>
+        <v>544</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="81"/>
+        <v>564</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="82"/>
+        <v>601</v>
+      </c>
+      <c r="K61" s="9">
+        <f t="shared" si="83"/>
+        <v>637</v>
+      </c>
+      <c r="L61" s="9">
+        <f t="shared" si="84"/>
+        <v>681</v>
+      </c>
+      <c r="M61" s="9">
+        <f t="shared" si="85"/>
+        <v>700</v>
+      </c>
+      <c r="N61" s="9">
+        <f t="shared" si="86"/>
+        <v>710</v>
+      </c>
+      <c r="O61" s="9">
+        <f t="shared" si="87"/>
+        <v>727</v>
+      </c>
+      <c r="P61" s="9">
+        <f t="shared" si="88"/>
+        <v>758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
